--- a/Data/SeenRx/SeenRx_CRP.xlsx
+++ b/Data/SeenRx/SeenRx_CRP.xlsx
@@ -570,31 +570,31 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C2">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D2">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G2">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="H2">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="I2">
         <v>5</v>
       </c>
       <c r="J2">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -602,31 +602,31 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -634,19 +634,19 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -655,7 +655,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -666,7 +666,7 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -681,16 +681,16 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -762,10 +762,10 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -809,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -818,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -858,31 +858,31 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="H11">
         <v>3</v>
       </c>
-      <c r="H11">
-        <v>14</v>
-      </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -908,13 +908,13 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -934,19 +934,19 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -954,10 +954,10 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -966,19 +966,19 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -986,13 +986,13 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1001,10 +1001,10 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1036,13 +1036,13 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1050,7 +1050,7 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1082,31 +1082,31 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C18">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D18">
         <v>7</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H18">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J18">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1135,10 +1135,10 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1164,13 +1164,13 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1210,31 +1210,31 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D22">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H22">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J22">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1274,13 +1274,13 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1292,13 +1292,13 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1306,19 +1306,19 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C25">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1338,31 +1338,31 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1402,13 +1402,13 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1443,16 +1443,16 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -1466,10 +1466,10 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -1490,7 +1490,7 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1530,7 +1530,7 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -1545,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -1562,31 +1562,31 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C33">
         <v>2</v>
       </c>
       <c r="D33">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1626,7 +1626,7 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -1650,7 +1650,7 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1664,7 +1664,7 @@
         <v>0</v>
       </c>
       <c r="D36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1676,7 +1676,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -1702,19 +1702,19 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1722,16 +1722,16 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C38">
         <v>0</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -1740,13 +1740,13 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
       <c r="J38">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -1818,13 +1818,13 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -1836,13 +1836,13 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I41">
         <v>0</v>
       </c>
       <c r="J41">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43">
         <v>0</v>
